--- a/biology/Botanique/Coutoubea/Coutoubea.xlsx
+++ b/biology/Botanique/Coutoubea/Coutoubea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coutoubea est un genre d'arbuste, de la région néotropiacle, appartenant à la famille des Gentianaceae, dont l'espèce type est Coutoubea spicata Aubl., et comptant entre 5 et 15 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coutoubea est un genre d'herbacées annuelles, à base généralement ligneuse, parfois rampantes. 
 Les feuilles sont sessiles ou pétiolées, à marges légèrement révolues, à apex aigu ou acuminé, et à nervation pennée. 
@@ -524,7 +538,7 @@
 Les pollen est agencé en tétrades.
 Le stigmate comporte 2 lobes. 
 Le fruit est une capsule avec le calice et le tube de corolle persistants.
-Les graines sont triangulaires avec 3 côtés creux, parfois globuleuses, fovéolées[3],[4].
+Les graines sont triangulaires avec 3 côtés creux, parfois globuleuses, fovéolées,.
 </t>
         </is>
       </c>
@@ -553,9 +567,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Coutoubea poussent dans les savanes, dans les endroits ouverts ou les zones perturbées[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Coutoubea poussent dans les savanes, dans les endroits ouverts ou les zones perturbées.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[5] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « COUTOUBEA. (Tabula 27.)
 CAL. Perianthium monophyllum, quadri-partitum ; laciniis oblongis, acutis. 
 COR. monopetala ; tubus brevis, receptaculo piſtilli infertus ; limbus quadrifidus, lobis oblongis, acutis. 
@@ -623,9 +641,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (07 février 2024)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (07 février 2024) :
 Coutoubea humilis 
 Coutoubea minor 
 Coutoubea ramosa Sandwith
@@ -633,13 +653,13 @@
 Coutoubea ramosa var. ramosa 
 Coutoubea reflexa (E.Mey.) Benth.
 Coutoubea spicata 
-Selon Tropicos                                           (07 février 2024)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (07 février 2024) (Attention liste brute contenant possiblement des synonymes) :
 Coutoubea alba Lam. 1786
-Coutoubea arenaria Willd. ex Griseb. 1839 [1838]
+Coutoubea arenaria Willd. ex Griseb. 1839 
 Coutoubea densiflora Mart. 1826
 Coutoubea humilis Sandwith 1939
 Coutoubea lutea Steud. 1843
-Coutoubea minor Kunth 1818 [1819]
+Coutoubea minor Kunth 1818 
 Coutoubea purpurea Desv. ex Ham. 1825
 Coutoubea purpurea Lam. 1786
 Coutoubea racemosa G. Mey. 1818
